--- a/src/.vuepress/public/data/unisa/AdvancedAnalytic1/assignment2/MtGambierByMonthsTemperature.xlsx
+++ b/src/.vuepress/public/data/unisa/AdvancedAnalytic1/assignment2/MtGambierByMonthsTemperature.xlsx
@@ -1,22 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time Series\2023\Assignment Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.workspace\27.blog\myblog\src\.vuepress\public\data\unisa\AdvancedAnalytic1\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975CC0CE-5419-445E-B722-B3B3EDC0B1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327E8BB-0F48-47EC-B051-9E5C017C9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC5B633C-A2CB-4641-99DE-A1E90EC7437F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="15600" activeTab="2" xr2:uid="{DC5B633C-A2CB-4641-99DE-A1E90EC7437F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$J$2:$J$3</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$J$4</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -162,6 +191,27 @@
   <si>
     <t>Anomaly</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Dec_DIFF^2</t>
+  </si>
+  <si>
+    <t>Annual_Diff^2</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Dec_Trend</t>
+  </si>
+  <si>
+    <t>Annual_Trend</t>
+  </si>
 </sst>
 </file>
 
@@ -184,15 +234,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -220,23 +282,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,7 +333,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -732,6 +811,1271 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C0F-4AEA-AC2D-A19F4C20236A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dec_Trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>22.189147305276052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.217264306538006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.24538130779996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.273498309061914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.301615310323871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.329732311585825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.35784931284778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.385966314109734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.414083315371688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.442200316633642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.470317317895596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.49843431915755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.526551320419504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.554668321681458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.582785322943415</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.610902324205369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.639019325467324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.667136326729278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.695253327991232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.723370329253186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.75148733051514</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.779604331777094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.807721333039048</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.835838334301002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.863955335562959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.892072336824913</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.920189338086868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.948306339348822</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.976423340610776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.00454034187273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.032657343134684</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.060774344396638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.088891345658592</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.117008346920549</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.145125348182503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.173242349444457</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.201359350706412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.229476351968366</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.25759335323032</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.285710354492274</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.313827355754228</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.341944357016182</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.370061358278136</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.39817835954009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.426295360802047</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.454412362064001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.482529363325956</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.51064636458791</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.538763365849864</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.566880367111818</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.594997368373772</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.623114369635726</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.65123137089768</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.679348372159637</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23.707465373421591</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.735582374683545</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.7636993759455</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23.791816377207454</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.819933378469408</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.848050379731362</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.876167380993316</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.90428438225527</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.932401383517224</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.960518384779181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.988635386041135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24.016752387303089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.044869388565044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.072986389826998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.101103391088952</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.129220392350906</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.15733739361286</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.185454394874814</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.213571396136771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C0F-4AEA-AC2D-A19F4C20236A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Annual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C0F-4AEA-AC2D-A19F4C20236A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Annual_Trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>18.525587317999978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.54378794710334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.561988576206701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.580189205310063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.598389834413425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.616590463516786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.634791092620144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.652991721723506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.671192350826868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.689392979930229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.707593609033591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.725794238136952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.743994867240314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.762195496343676</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.780396125447037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.798596754550399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.816797383653761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.834998012757122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.853198641860484</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.871399270963842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.889599900067203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.907800529170565</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.926001158273927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.944201787377288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.96240241648065</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.980603045584012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.998803674687373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.017004303790735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.035204932894096</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.053405561997458</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.07160619110082</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.089806820204181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.108007449307543</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.126208078410901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.144408707514263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.162609336617624</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.180809965720986</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.199010594824347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.217211223927709</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.235411853031071</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.253612482134432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.271813111237794</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.290013740341156</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.308214369444517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.326414998547879</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.344615627651237</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.362816256754598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.38101688585796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.399217514961322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.417418144064683</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.435618773168045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.453819402271407</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.472020031374768</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.49022066047813</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.508421289581491</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.526621918684853</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.544822547788215</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.563023176891576</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.581223805994938</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.599424435098296</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.617625064201658</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.635825693305019</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.654026322408381</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.672226951511742</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.690427580615104</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.708628209718466</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.726828838821827</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.745029467925189</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.763230097028551</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.781430726131912</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.799631355235274</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.817831984338632</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.836032613441994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C0F-4AEA-AC2D-A19F4C20236A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="839349632"/>
+        <c:axId val="1331098384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="839349632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331098384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331098384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839349632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -772,7 +2116,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1329,8 +3229,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C58B40-9263-CBCC-CADB-A599E1643899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1628,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCDCFE9-9BBB-446A-82AA-D850D2597A93}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51:P74"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,8 +7140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9FBB88-4C96-4E69-A15A-20FF9C49AC3A}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,10 +7182,10 @@
       <c r="B4">
         <v>0.18999999999999773</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5254,10 +7195,10 @@
       <c r="B5">
         <v>0.38999999999999702</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0.32523534868862813</v>
       </c>
     </row>
@@ -5269,10 +7210,10 @@
       <c r="B6">
         <v>-1.0000000000001563E-2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.10577803203661351</v>
       </c>
     </row>
@@ -5284,10 +7225,10 @@
       <c r="B7">
         <v>-0.11000000000000298</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>6.5131578947368679E-2</v>
       </c>
     </row>
@@ -5299,10 +7240,10 @@
       <c r="B8">
         <v>0.68999999999999773</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>0.39300956952615057</v>
       </c>
     </row>
@@ -5314,10 +7255,10 @@
       <c r="B9">
         <v>0.48999999999999844</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>24</v>
       </c>
     </row>
@@ -5350,20 +7291,20 @@
       <c r="B12">
         <v>0.88999999999999702</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5375,22 +7316,22 @@
       <c r="B13">
         <v>0.28999999999999559</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.40195652173913077</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0.40195652173913077</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>2.6023926812104219</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>0.12095614939729719</v>
       </c>
     </row>
@@ -5402,20 +7343,18 @@
       <c r="B14">
         <v>0.18999999999999773</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>22</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>3.3980434782608637</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.15445652173913016</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -5425,18 +7364,18 @@
       <c r="B15">
         <v>0.88999999999999702</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>23</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>3.7999999999999945</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -5455,29 +7394,29 @@
       <c r="B17">
         <v>1.389999999999997</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5489,31 +7428,31 @@
       <c r="B18">
         <v>0.98999999999999844</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>0.35630434782608411</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>0.16559477304396797</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>2.1516642178764895</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>4.2661540226124894E-2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>1.2881807824519365E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>0.6997268878276488</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>1.2881807824519365E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>0.6997268878276488</v>
       </c>
     </row>
@@ -5525,31 +7464,31 @@
       <c r="B19">
         <v>0.38999999999999702</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>1.8695652173913047E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>1.1589219943705938E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>1.6131933179908788</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.12095614939729715</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>-5.338918945354907E-3</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>4.2730223293181005E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>-5.338918945354907E-3</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>4.2730223293181005E-2</v>
       </c>
     </row>
@@ -5614,26 +7553,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04363731-26FC-400B-880D-72853FCF1D1F}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5643,14 +7610,39 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="D2">
+        <f>J$2*$A2+J$3</f>
+        <v>22.189147305276052</v>
+      </c>
+      <c r="E2">
+        <f>K$2*$A2+K$3</f>
+        <v>18.525587317999978</v>
+      </c>
+      <c r="F2">
+        <f>(B2-D2)^2</f>
+        <v>14.522598260884777</v>
+      </c>
+      <c r="G2">
+        <f>(C2-E2)^2</f>
+        <v>0.22506739284245386</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2.8117001261954409E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.820062910336135E-2</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5661,10 +7653,35 @@
       <c r="C3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>J$2*$A3+J$3</f>
+        <v>22.217264306538006</v>
+      </c>
+      <c r="E3">
+        <f>K$2*$A3+K$3</f>
+        <v>18.54378794710334</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(B3-D3)^2</f>
+        <v>1.3988637205890211</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">(C3-E3)^2</f>
+        <v>6.5644616049521376E-2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
+        <v>22.161030304014098</v>
+      </c>
+      <c r="K3" s="6">
+        <v>18.507386688896617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -5673,18 +7690,45 @@
       <c r="C4">
         <v>17.600000000000001</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4">
+        <f>J$2*$A4+J$3</f>
+        <v>22.24538130779996</v>
+      </c>
+      <c r="E4">
+        <f>K$2*$A4+K$3</f>
+        <v>18.561988576206701</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.3882033864975165</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.92542202075219382</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6">
+        <f>SUM(F2:F74)</f>
+        <v>224.26763393370499</v>
+      </c>
+      <c r="K4" s="6">
+        <f>SUM(G2:G74)</f>
+        <v>15.936941586174319</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -5693,22 +7737,38 @@
       <c r="C5">
         <v>18.7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5">
+        <f>J$2*$A5+J$3</f>
+        <v>22.273498309061914</v>
+      </c>
+      <c r="E5">
+        <f>K$2*$A5+K$3</f>
+        <v>18.580189205310063</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.59829963412164</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.4354626524234061E-2</v>
+      </c>
+      <c r="P5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1">
+      <c r="Q5">
         <v>0.32020944338404028</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Z5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="AA5">
         <v>0.63443673555975366</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -5717,22 +7777,38 @@
       <c r="C6">
         <v>18.5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6">
+        <f>J$2*$A6+J$3</f>
+        <v>22.301615310323871</v>
+      </c>
+      <c r="E6">
+        <f>K$2*$A6+K$3</f>
+        <v>18.598389834413425</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.9935413679319596</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9.6805595159011187E-3</v>
+      </c>
+      <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1">
+      <c r="Q6">
         <v>0.10253408763231689</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Z6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="AA6">
         <v>0.40250997142771683</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -5741,22 +7817,38 @@
       <c r="C7">
         <v>18.3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7">
+        <f>J$2*$A7+J$3</f>
+        <v>22.329732311585825</v>
+      </c>
+      <c r="E7">
+        <f>K$2*$A7+K$3</f>
+        <v>18.616590463516786</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.0603486335238861</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.10022952158977312</v>
+      </c>
+      <c r="P7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1">
+      <c r="Q7">
         <v>8.9893722669391773E-2</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Z7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="AA7">
         <v>0.39409461891261421</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -5765,22 +7857,38 @@
       <c r="C8">
         <v>18.100000000000001</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8">
+        <f>J$2*$A8+J$3</f>
+        <v>22.35784931284778</v>
+      </c>
+      <c r="E8">
+        <f>K$2*$A8+K$3</f>
+        <v>18.634791092620144</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8.7488725575140904</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.28600151274584629</v>
+      </c>
+      <c r="P8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="Q8">
         <v>1.777272930370716</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Z8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="AA8">
         <v>0.47377628233391783</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -5789,22 +7897,38 @@
       <c r="C9">
         <v>18.399999999999999</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9">
+        <f>J$2*$A9+J$3</f>
+        <v>22.385966314109734</v>
+      </c>
+      <c r="E9">
+        <f>K$2*$A9+K$3</f>
+        <v>18.652991721723506</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.5810418695773833E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6.4004811260624586E-2</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2">
+      <c r="Q9" s="1">
         <v>73</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Z9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="AA9" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -5813,10 +7937,26 @@
       <c r="C10">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>J$2*$A10+J$3</f>
+        <v>22.414083315371688</v>
+      </c>
+      <c r="E10">
+        <f>K$2*$A10+K$3</f>
+        <v>18.671192350826868</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.8277982535559589</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.32626070164312171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11">
@@ -5825,16 +7965,32 @@
       <c r="C11">
         <v>19.3</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
+      <c r="D11">
+        <f>J$2*$A11+J$3</f>
+        <v>22.442200316633642</v>
+      </c>
+      <c r="E11">
+        <f>K$2*$A11+K$3</f>
+        <v>18.689392979930229</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.0274622599120065</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.37284093295848636</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12">
@@ -5843,42 +7999,58 @@
       <c r="C12">
         <v>18.100000000000001</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="D12">
+        <f>J$2*$A12+J$3</f>
+        <v>22.470317317895596</v>
+      </c>
+      <c r="E12">
+        <f>K$2*$A12+K$3</f>
+        <v>18.707593609033591</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>13.910532909189497</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.36916999373846227</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="R12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="S12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="U12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="AB12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="AC12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="AD12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="AE12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13">
@@ -5887,46 +8059,62 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13">
+        <f>J$2*$A13+J$3</f>
+        <v>22.49843431915755</v>
+      </c>
+      <c r="E13">
+        <f>K$2*$A13+K$3</f>
+        <v>18.725794238136952</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.8953257662208287</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.6236003235649894</v>
+      </c>
+      <c r="P13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1">
+      <c r="Q13">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="R13">
         <v>25.622229112674233</v>
       </c>
-      <c r="I13" s="1">
+      <c r="S13">
         <v>25.622229112674233</v>
       </c>
-      <c r="J13" s="1">
+      <c r="T13">
         <v>8.1116398089022752</v>
       </c>
-      <c r="K13" s="1">
+      <c r="U13">
         <v>5.748878200662169E-3</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Z13" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="AA13">
         <v>1</v>
       </c>
-      <c r="R13" s="1">
+      <c r="AB13">
         <v>10.736209120078955</v>
       </c>
-      <c r="S13" s="1">
+      <c r="AC13">
         <v>10.736209120078955</v>
       </c>
-      <c r="T13" s="1">
+      <c r="AD13">
         <v>47.830434994298088</v>
       </c>
-      <c r="U13" s="1">
+      <c r="AE13">
         <v>1.6737823707040982E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14">
@@ -5935,38 +8123,50 @@
       <c r="C14">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14">
+        <f>J$2*$A14+J$3</f>
+        <v>22.526551320419504</v>
+      </c>
+      <c r="E14">
+        <f>K$2*$A14+K$3</f>
+        <v>18.743994867240314</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.601523669992028E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.5538627999304433E-2</v>
+      </c>
+      <c r="P14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1">
+      <c r="Q14">
         <v>71</v>
       </c>
-      <c r="H14" s="1">
+      <c r="R14">
         <v>224.26763390102434</v>
       </c>
-      <c r="I14" s="1">
+      <c r="S14">
         <v>3.1586990690285117</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="P14" s="1" t="s">
+      <c r="Z14" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="AA14">
         <v>71</v>
       </c>
-      <c r="R14" s="1">
+      <c r="AB14">
         <v>15.936941564852523</v>
       </c>
-      <c r="S14" s="1">
+      <c r="AC14">
         <v>0.22446396570214822</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15">
@@ -5975,34 +8175,50 @@
       <c r="C15">
         <v>18.899999999999999</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15">
+        <f>J$2*$A15+J$3</f>
+        <v>22.554668321681458</v>
+      </c>
+      <c r="E15">
+        <f>K$2*$A15+K$3</f>
+        <v>18.762195496343676</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.29738663937771947</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.8990081227965513E-2</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2">
+      <c r="Q15" s="1">
         <v>72</v>
       </c>
-      <c r="H15" s="2">
+      <c r="R15" s="1">
         <v>249.88986301369857</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="P15" s="2" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="AA15" s="1">
         <v>72</v>
       </c>
-      <c r="R15" s="2">
+      <c r="AB15" s="1">
         <v>26.673150684931478</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16">
@@ -6011,10 +8227,26 @@
       <c r="C16">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>J$2*$A16+J$3</f>
+        <v>22.582785322943415</v>
+      </c>
+      <c r="E16">
+        <f>K$2*$A16+K$3</f>
+        <v>18.780396125447037</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>15.076021864064808</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.77509733770215794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17">
@@ -6023,60 +8255,76 @@
       <c r="C17">
         <v>19.2</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="D17">
+        <f>J$2*$A17+J$3</f>
+        <v>22.610902324205369</v>
+      </c>
+      <c r="E17">
+        <f>K$2*$A17+K$3</f>
+        <v>18.798596754550399</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6.1956072396462387</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.16112456545747211</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="S17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="T17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="V17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="W17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="X17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="AB17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="AC17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="AD17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="AE17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="AF17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="AG17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="AH17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18">
@@ -6085,64 +8333,80 @@
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18">
+        <f>J$2*$A18+J$3</f>
+        <v>22.639019325467324</v>
+      </c>
+      <c r="E18">
+        <f>K$2*$A18+K$3</f>
+        <v>18.816797383653761</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5.7130237946855018E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>3.3563198636107405E-2</v>
+      </c>
+      <c r="P18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="1">
+      <c r="Q18">
         <v>22.161073059360731</v>
       </c>
-      <c r="H18" s="1">
+      <c r="R18">
         <v>0.42033941273417791</v>
       </c>
-      <c r="I18" s="1">
+      <c r="S18">
         <v>52.721853787656514</v>
       </c>
-      <c r="J18" s="1">
+      <c r="T18">
         <v>1.1209170631132626E-58</v>
       </c>
-      <c r="K18" s="1">
+      <c r="U18">
         <v>21.322940075095293</v>
       </c>
-      <c r="L18" s="1">
+      <c r="V18">
         <v>22.99920604362617</v>
       </c>
-      <c r="M18" s="1">
+      <c r="W18">
         <v>21.322940075095293</v>
       </c>
-      <c r="N18" s="1">
+      <c r="X18">
         <v>22.99920604362617</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Z18" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="AA18">
         <v>18.507420091324203</v>
       </c>
-      <c r="R18" s="1">
+      <c r="AB18">
         <v>0.11205192004026171</v>
       </c>
-      <c r="S18" s="1">
+      <c r="AC18">
         <v>165.16825490071253</v>
       </c>
-      <c r="T18" s="1">
+      <c r="AD18">
         <v>1.5210437567961203E-93</v>
       </c>
-      <c r="U18" s="1">
+      <c r="AE18">
         <v>18.283994908505555</v>
       </c>
-      <c r="V18" s="1">
+      <c r="AF18">
         <v>18.730845274142851</v>
       </c>
-      <c r="W18" s="1">
+      <c r="AG18">
         <v>18.283994908505555</v>
       </c>
-      <c r="X18" s="1">
+      <c r="AH18">
         <v>18.730845274142851</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19">
@@ -6151,64 +8415,80 @@
       <c r="C19">
         <v>20.100000000000001</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="D19">
+        <f>J$2*$A19+J$3</f>
+        <v>22.667136326729278</v>
+      </c>
+      <c r="E19">
+        <f>K$2*$A19+K$3</f>
+        <v>18.834998012757122</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4.5072863667001209E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.6002300277284336</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="2">
+      <c r="Q19" s="1">
         <v>2.811612982845859E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="R19" s="1">
         <v>9.871910539718207E-3</v>
       </c>
-      <c r="I19" s="2">
+      <c r="S19" s="1">
         <v>2.8480940660206957</v>
       </c>
-      <c r="J19" s="2">
+      <c r="T19" s="1">
         <v>5.7488782006621152E-3</v>
       </c>
-      <c r="K19" s="2">
+      <c r="U19" s="1">
         <v>8.4320992798221292E-3</v>
       </c>
-      <c r="L19" s="2">
+      <c r="V19" s="1">
         <v>4.7800160377095051E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="W19" s="1">
         <v>8.4320992798221292E-3</v>
       </c>
-      <c r="N19" s="2">
+      <c r="X19" s="1">
         <v>4.7800160377095051E-2</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Z19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="AA19" s="1">
         <v>1.8200049364432931E-2</v>
       </c>
-      <c r="R19" s="2">
+      <c r="AB19" s="1">
         <v>2.631603168605699E-3</v>
       </c>
-      <c r="S19" s="2">
+      <c r="AC19" s="1">
         <v>6.9159551035484785</v>
       </c>
-      <c r="T19" s="2">
+      <c r="AD19" s="1">
         <v>1.6737823707040136E-9</v>
       </c>
-      <c r="U19" s="2">
+      <c r="AE19" s="1">
         <v>1.2952781679590061E-2</v>
       </c>
-      <c r="V19" s="2">
+      <c r="AF19" s="1">
         <v>2.3447317049275801E-2</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AG19" s="1">
         <v>1.2952781679590061E-2</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AH19" s="1">
         <v>2.3447317049275801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20">
@@ -6217,10 +8497,26 @@
       <c r="C20">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>J$2*$A20+J$3</f>
+        <v>22.695253327991232</v>
+      </c>
+      <c r="E20">
+        <f>K$2*$A20+K$3</f>
+        <v>18.853198641860484</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.99052918687762348</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.1903671237031284E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21">
@@ -6229,18 +8525,34 @@
       <c r="C21">
         <v>18.899999999999999</v>
       </c>
+      <c r="D21">
+        <f>J$2*$A21+J$3</f>
+        <v>22.723370329253186</v>
+      </c>
+      <c r="E21">
+        <f>K$2*$A21+K$3</f>
+        <v>18.871399270963842</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4.0940274893021478</v>
+      </c>
       <c r="G21">
-        <f>G19*G15</f>
-        <v>2.0243613476490183</v>
+        <f t="shared" si="1"/>
+        <v>8.1800170139965901E-4</v>
       </c>
       <c r="Q21">
         <f>Q19*Q15</f>
+        <v>2.0243613476490183</v>
+      </c>
+      <c r="AA21">
+        <f>AA19*AA15</f>
         <v>1.310403554239171</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22">
@@ -6249,10 +8561,26 @@
       <c r="C22">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>J$2*$A22+J$3</f>
+        <v>22.75148733051514</v>
+      </c>
+      <c r="E22">
+        <f>K$2*$A22+K$3</f>
+        <v>18.889599900067203</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.6509452035753107E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>8.3868102118933405E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23">
@@ -6261,10 +8589,26 @@
       <c r="C23">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>J$2*$A23+J$3</f>
+        <v>22.779604331777094</v>
+      </c>
+      <c r="E23">
+        <f>K$2*$A23+K$3</f>
+        <v>18.907800529170565</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.9033081122581252</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6.0848255340858982E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24">
@@ -6273,10 +8617,26 @@
       <c r="C24">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>J$2*$A24+J$3</f>
+        <v>22.807721333039048</v>
+      </c>
+      <c r="E24">
+        <f>K$2*$A24+K$3</f>
+        <v>18.926001158273927</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>5.2545414870042864</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.45427443864809031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25">
@@ -6285,10 +8645,26 @@
       <c r="C25">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>J$2*$A25+J$3</f>
+        <v>22.835838334301002</v>
+      </c>
+      <c r="E25">
+        <f>K$2*$A25+K$3</f>
+        <v>18.944201787377288</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>7.0977573809800605</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.12659236810551686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26">
@@ -6297,10 +8673,26 @@
       <c r="C26">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>J$2*$A26+J$3</f>
+        <v>22.863955335562959</v>
+      </c>
+      <c r="E26">
+        <f>K$2*$A26+K$3</f>
+        <v>18.96240241648065</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.74641882184770592</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>5.6452611694234184E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27">
@@ -6309,10 +8701,26 @@
       <c r="C27">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>J$2*$A27+J$3</f>
+        <v>22.892072336824913</v>
+      </c>
+      <c r="E27">
+        <f>K$2*$A27+K$3</f>
+        <v>18.980603045584012</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2.2738458373686727</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.4255632723813959E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28">
@@ -6321,10 +8729,26 @@
       <c r="C28">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>J$2*$A28+J$3</f>
+        <v>22.920189338086868</v>
+      </c>
+      <c r="E28">
+        <f>K$2*$A28+K$3</f>
+        <v>18.998803674687373</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.384634815076626</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.24880510588162683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29">
@@ -6333,10 +8757,26 @@
       <c r="C29">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>J$2*$A29+J$3</f>
+        <v>22.948306339348822</v>
+      </c>
+      <c r="E29">
+        <f>K$2*$A29+K$3</f>
+        <v>19.017004303790735</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.1060595558538759</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1.3690007105554892E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30">
@@ -6345,10 +8785,26 @@
       <c r="C30">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>J$2*$A30+J$3</f>
+        <v>22.976423340610776</v>
+      </c>
+      <c r="E30">
+        <f>K$2*$A30+K$3</f>
+        <v>19.035204932894096</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.60283320384519756</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.18940333361535375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31">
@@ -6357,10 +8813,26 @@
       <c r="C31">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>J$2*$A31+J$3</f>
+        <v>23.00454034187273</v>
+      </c>
+      <c r="E31">
+        <f>K$2*$A31+K$3</f>
+        <v>19.053405561997458</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>8.7296409580683881E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.1710416527728578E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32">
@@ -6369,10 +8841,26 @@
       <c r="C32">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>J$2*$A32+J$3</f>
+        <v>23.032657343134684</v>
+      </c>
+      <c r="E32">
+        <f>K$2*$A32+K$3</f>
+        <v>19.07160619110082</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>9.4085909746255858</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.27920001728298499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33">
@@ -6381,10 +8869,26 @@
       <c r="C33">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>J$2*$A33+J$3</f>
+        <v>23.060774344396638</v>
+      </c>
+      <c r="E33">
+        <f>K$2*$A33+K$3</f>
+        <v>19.089806820204181</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.9383783178185836E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.16825844475100485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34">
@@ -6393,10 +8897,26 @@
       <c r="C34">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>J$2*$A34+J$3</f>
+        <v>23.088891345658592</v>
+      </c>
+      <c r="E34">
+        <f>K$2*$A34+K$3</f>
+        <v>19.108007449307543</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>4.4566863937840463E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.24205666993687136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35">
@@ -6405,10 +8925,26 @@
       <c r="C35">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>J$2*$A35+J$3</f>
+        <v>23.117008346920549</v>
+      </c>
+      <c r="E35">
+        <f>K$2*$A35+K$3</f>
+        <v>19.126208078410901</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.6460675818715376</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>5.1170094738352968E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36">
@@ -6417,10 +8953,26 @@
       <c r="C36">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>J$2*$A36+J$3</f>
+        <v>23.145125348182503</v>
+      </c>
+      <c r="E36">
+        <f>K$2*$A36+K$3</f>
+        <v>19.144408707514263</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.0922869934135961</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.29638084081734839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37">
@@ -6429,10 +8981,26 @@
       <c r="C37">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>J$2*$A37+J$3</f>
+        <v>23.173242349444457</v>
+      </c>
+      <c r="E37">
+        <f>K$2*$A37+K$3</f>
+        <v>19.162609336617624</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3.1443884298633047</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>3.9199290316988033E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38">
@@ -6441,10 +9009,26 @@
       <c r="C38">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>J$2*$A38+J$3</f>
+        <v>23.201359350706412</v>
+      </c>
+      <c r="E38">
+        <f>K$2*$A38+K$3</f>
+        <v>19.180809965720986</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>4.4157111208012658</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.23117822313661626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39">
@@ -6453,10 +9037,26 @@
       <c r="C39">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>J$2*$A39+J$3</f>
+        <v>23.229476351968366</v>
+      </c>
+      <c r="E39">
+        <f>K$2*$A39+K$3</f>
+        <v>19.199010594824347</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.6764125719035718E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>9.8030978874708193E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40">
@@ -6465,10 +9065,26 @@
       <c r="C40">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>J$2*$A40+J$3</f>
+        <v>23.25759335323032</v>
+      </c>
+      <c r="E40">
+        <f>K$2*$A40+K$3</f>
+        <v>19.217211223927709</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>5.8760982398120595E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.23308500230137996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41">
@@ -6477,10 +9093,26 @@
       <c r="C41">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>J$2*$A41+J$3</f>
+        <v>23.285710354492274</v>
+      </c>
+      <c r="E41">
+        <f>K$2*$A41+K$3</f>
+        <v>19.235411853031071</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2.0002152013903682</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>4.1716287288801022E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B42">
@@ -6489,10 +9121,26 @@
       <c r="C42">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>J$2*$A42+J$3</f>
+        <v>23.313827355754228</v>
+      </c>
+      <c r="E42">
+        <f>K$2*$A42+K$3</f>
+        <v>19.253612482134432</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>8.1894782314618164E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>6.0706808959955429E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B43">
@@ -6501,10 +9149,26 @@
       <c r="C43">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>J$2*$A43+J$3</f>
+        <v>23.341944357016182</v>
+      </c>
+      <c r="E43">
+        <f>K$2*$A43+K$3</f>
+        <v>19.271813111237794</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.5424257859243335</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>2.9519745193210069E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B44">
@@ -6513,10 +9177,26 @@
       <c r="C44">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>J$2*$A44+J$3</f>
+        <v>23.370061358278136</v>
+      </c>
+      <c r="E44">
+        <f>K$2*$A44+K$3</f>
+        <v>19.290013740341156</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.22095768054628728</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.79212445799605646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B45">
@@ -6525,10 +9205,26 @@
       <c r="C45">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>J$2*$A45+J$3</f>
+        <v>23.39817835954009</v>
+      </c>
+      <c r="E45">
+        <f>K$2*$A45+K$3</f>
+        <v>19.308214369444517</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.685267053178195</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>3.6781728087564143E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B46">
@@ -6537,10 +9233,26 @@
       <c r="C46">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>J$2*$A46+J$3</f>
+        <v>23.426295360802047</v>
+      </c>
+      <c r="E46">
+        <f>K$2*$A46+K$3</f>
+        <v>19.326414998547879</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3.510769074951932</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>5.1263751567435317E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B47">
@@ -6549,10 +9261,26 @@
       <c r="C47">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>J$2*$A47+J$3</f>
+        <v>23.454412362064001</v>
+      </c>
+      <c r="E47">
+        <f>K$2*$A47+K$3</f>
+        <v>19.344615627651237</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>5.543257570639784</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.55445243294244329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48">
@@ -6561,10 +9289,26 @@
       <c r="C48">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>J$2*$A48+J$3</f>
+        <v>23.482529363325956</v>
+      </c>
+      <c r="E48">
+        <f>K$2*$A48+K$3</f>
+        <v>19.362816256754598</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>3.543916803784422</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.74445189292001723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B49">
@@ -6573,10 +9317,26 @@
       <c r="C49">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f>J$2*$A49+J$3</f>
+        <v>23.51064636458791</v>
+      </c>
+      <c r="E49">
+        <f>K$2*$A49+K$3</f>
+        <v>19.38101688585796</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.65714752841959512</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>3.2767112965714017E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50">
@@ -6585,10 +9345,26 @@
       <c r="C50">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>J$2*$A50+J$3</f>
+        <v>23.538763365849864</v>
+      </c>
+      <c r="E50">
+        <f>K$2*$A50+K$3</f>
+        <v>19.399217514961322</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.74172854000225341</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.35906163023642101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51">
@@ -6597,10 +9373,26 @@
       <c r="C51">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>J$2*$A51+J$3</f>
+        <v>23.566880367111818</v>
+      </c>
+      <c r="E51">
+        <f>K$2*$A51+K$3</f>
+        <v>19.417418144064683</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.3616097911510137</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>6.8197629297213919E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52">
@@ -6609,10 +9401,26 @@
       <c r="C52">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f>J$2*$A52+J$3</f>
+        <v>23.594997368373772</v>
+      </c>
+      <c r="E52">
+        <f>K$2*$A52+K$3</f>
+        <v>19.435618773168045</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.64802923692515069</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>6.9897433101169276E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53">
@@ -6621,10 +9429,26 @@
       <c r="C53">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f>J$2*$A53+J$3</f>
+        <v>23.623114369635726</v>
+      </c>
+      <c r="E53">
+        <f>K$2*$A53+K$3</f>
+        <v>19.453819402271407</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>21.373186474732332</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>2.3660408515132587E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54">
@@ -6633,10 +9457,26 @@
       <c r="C54">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>J$2*$A54+J$3</f>
+        <v>23.65123137089768</v>
+      </c>
+      <c r="E54">
+        <f>K$2*$A54+K$3</f>
+        <v>19.472020031374768</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2.2132105004983926E-2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>7.8287864426895457E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55">
@@ -6645,10 +9485,26 @@
       <c r="C55">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f>J$2*$A55+J$3</f>
+        <v>23.679348372159637</v>
+      </c>
+      <c r="E55">
+        <f>K$2*$A55+K$3</f>
+        <v>19.49022066047813</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.84759941984511211</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.15227216386398679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B56">
@@ -6657,10 +9513,26 @@
       <c r="C56">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f>J$2*$A56+J$3</f>
+        <v>23.707465373421591</v>
+      </c>
+      <c r="E56">
+        <f>K$2*$A56+K$3</f>
+        <v>19.508421289581491</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.1936319102728241</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.25849220769970682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57">
@@ -6669,10 +9541,26 @@
       <c r="C57">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>J$2*$A57+J$3</f>
+        <v>23.735582374683545</v>
+      </c>
+      <c r="E57">
+        <f>K$2*$A57+K$3</f>
+        <v>19.526621918684853</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.1329848810843217</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>7.4735575343551464E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58">
@@ -6681,10 +9569,26 @@
       <c r="C58">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f>J$2*$A58+J$3</f>
+        <v>23.7636993759455</v>
+      </c>
+      <c r="E58">
+        <f>K$2*$A58+K$3</f>
+        <v>19.544822547788215</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.87665885860484571</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>3.0445512325840067E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59">
@@ -6693,10 +9597,26 @@
       <c r="C59">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>J$2*$A59+J$3</f>
+        <v>23.791816377207454</v>
+      </c>
+      <c r="E59">
+        <f>K$2*$A59+K$3</f>
+        <v>19.563023176891576</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>4.0328014628521993</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.7005302024206671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60">
@@ -6705,10 +9625,26 @@
       <c r="C60">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f>J$2*$A60+J$3</f>
+        <v>23.819933378469408</v>
+      </c>
+      <c r="E60">
+        <f>K$2*$A60+K$3</f>
+        <v>19.581223805994938</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>11.695944313169186</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>7.9086829058278102E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61">
@@ -6717,10 +9653,26 @@
       <c r="C61">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f>J$2*$A61+J$3</f>
+        <v>23.848050379731362</v>
+      </c>
+      <c r="E61">
+        <f>K$2*$A61+K$3</f>
+        <v>19.599424435098296</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.90620807952960614</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.16046078319631926</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62">
@@ -6729,10 +9681,26 @@
       <c r="C62">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f>J$2*$A62+J$3</f>
+        <v>23.876167380993316</v>
+      </c>
+      <c r="E62">
+        <f>K$2*$A62+K$3</f>
+        <v>19.617625064201658</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.45720232711936071</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>4.7360668568776229E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63">
@@ -6741,10 +9709,26 @@
       <c r="C63">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f>J$2*$A63+J$3</f>
+        <v>23.90428438225527</v>
+      </c>
+      <c r="E63">
+        <f>K$2*$A63+K$3</f>
+        <v>19.635825693305019</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.24573397367603811</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.11277889628379638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64">
@@ -6753,10 +9737,26 @@
       <c r="C64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f>J$2*$A64+J$3</f>
+        <v>23.932401383517224</v>
+      </c>
+      <c r="E64">
+        <f>K$2*$A64+K$3</f>
+        <v>19.654026322408381</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.32216818943316167</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.11969778558626962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65">
@@ -6765,10 +9765,26 @@
       <c r="C65">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f>J$2*$A65+J$3</f>
+        <v>23.960518384779181</v>
+      </c>
+      <c r="E65">
+        <f>K$2*$A65+K$3</f>
+        <v>19.672226951511742</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>6.7869828807953975E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.27854439071058784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66">
@@ -6777,10 +9793,26 @@
       <c r="C66">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f>J$2*$A66+J$3</f>
+        <v>23.988635386041135</v>
+      </c>
+      <c r="E66">
+        <f>K$2*$A66+K$3</f>
+        <v>19.690427580615104</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.78967284932447523</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.65540750222871369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67">
@@ -6789,10 +9821,26 @@
       <c r="C67">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f>J$2*$A67+J$3</f>
+        <v>24.016752387303089</v>
+      </c>
+      <c r="E67">
+        <f>K$2*$A67+K$3</f>
+        <v>19.708628209718466</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F74" si="3">(B67-D67)^2</f>
+        <v>21.932808201831303</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G74" si="4">(C67-E67)^2</f>
+        <v>0.15317187822817435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A74" si="1">A67+1</f>
+        <f t="shared" ref="A68:A74" si="5">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68">
@@ -6801,10 +9849,26 @@
       <c r="C68">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f>J$2*$A68+J$3</f>
+        <v>24.044869388565044</v>
+      </c>
+      <c r="E68">
+        <f>K$2*$A68+K$3</f>
+        <v>19.726828838821827</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>0.20714387346515734</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>5.1451322121258539E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B69">
@@ -6813,10 +9877,26 @@
       <c r="C69">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f>J$2*$A69+J$3</f>
+        <v>24.072986389826998</v>
+      </c>
+      <c r="E69">
+        <f>K$2*$A69+K$3</f>
+        <v>19.745029467925189</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>1.6132457169179246E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0.206998185056436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B70">
@@ -6825,10 +9905,26 @@
       <c r="C70">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f>J$2*$A70+J$3</f>
+        <v>24.101103391088952</v>
+      </c>
+      <c r="E70">
+        <f>K$2*$A70+K$3</f>
+        <v>19.763230097028551</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>0.80801511351178223</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>5.6059986953109563E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B71">
@@ -6837,10 +9933,26 @@
       <c r="C71">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>J$2*$A71+J$3</f>
+        <v>24.129220392350906</v>
+      </c>
+      <c r="E71">
+        <f>K$2*$A71+K$3</f>
+        <v>19.781430726131912</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>2.4673485758062403</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>3.4481793198807398E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B72">
@@ -6849,10 +9961,26 @@
       <c r="C72">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f>J$2*$A72+J$3</f>
+        <v>24.15733739361286</v>
+      </c>
+      <c r="E72">
+        <f>K$2*$A72+K$3</f>
+        <v>19.799631355235274</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>6.0385070660480462</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>0.24963149113423569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B73">
@@ -6861,10 +9989,26 @@
       <c r="C73">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f>J$2*$A73+J$3</f>
+        <v>24.185454394874814</v>
+      </c>
+      <c r="E73">
+        <f>K$2*$A73+K$3</f>
+        <v>19.817831984338632</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>7.3024536034203506E-3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>4.7450773400905359E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B74">
@@ -6872,10 +10016,27 @@
       </c>
       <c r="C74">
         <v>19.7</v>
+      </c>
+      <c r="D74">
+        <f>J$2*$A74+J$3</f>
+        <v>24.213571396136771</v>
+      </c>
+      <c r="E74">
+        <f>K$2*$A74+K$3</f>
+        <v>19.836032613441994</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0.83461269583928832</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>1.8504871919859032E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/.vuepress/public/data/unisa/AdvancedAnalytic1/assignment2/MtGambierByMonthsTemperature.xlsx
+++ b/src/.vuepress/public/data/unisa/AdvancedAnalytic1/assignment2/MtGambierByMonthsTemperature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.workspace\27.blog\myblog\src\.vuepress\public\data\unisa\AdvancedAnalytic1\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327E8BB-0F48-47EC-B051-9E5C017C9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ACAC55-5F6A-437D-8358-BABC79EFA5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="15600" activeTab="2" xr2:uid="{DC5B633C-A2CB-4641-99DE-A1E90EC7437F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{DC5B633C-A2CB-4641-99DE-A1E90EC7437F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$J$2:$J$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$L$3:$L$4</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$J$4</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$L$5</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -212,6 +212,15 @@
   <si>
     <t>Annual_Trend</t>
   </si>
+  <si>
+    <t>Exponential Smoothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec Exponential Smoothing </t>
+  </si>
+  <si>
+    <t>Annual Exponential Smoothing</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -297,11 +312,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,6 +365,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -836,7 +903,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet2!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -859,7 +926,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$75</c:f>
+              <c:f>Sheet2!$B$3:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -1097,7 +1164,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Sheet2!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1187,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$75</c:f>
+              <c:f>Sheet2!$D$3:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -1358,7 +1425,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1381,7 +1448,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$75</c:f>
+              <c:f>Sheet2!$C$3:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -1619,7 +1686,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
+              <c:f>Sheet2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1642,7 +1709,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$75</c:f>
+              <c:f>Sheet2!$E$3:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -2076,6 +2143,1576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>December Smoothing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41944444444444445"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F43-4928-8F44-A29A7F1AAABC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Smooth alpha=0.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.919200000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.995360000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.456288000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.645030400000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.636024320000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.108819456000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.727055564800001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.621644451839998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.937315561471998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.829852449177601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.883881959342084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.047105567473665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.657684453978931</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.606147563183146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.604918050546516</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.423934440437215</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.079147552349774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.203318041879818</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.042654433503856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.654123546803085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.223298837442471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.978639069953978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.262911255963182</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.070329004770546</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.256263203816438</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.045010563053154</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.096008450442525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.696806760354022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.597445408283217</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.537956326626574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.71036506130126</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.388292049041009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.990633639232808</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.612506911386248</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.710005529109001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.8680044232872</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.234403538629763</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.307522830903814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.066018264723052</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.032814611778441</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.846251689422754</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.337001351538206</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.889601081230566</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.631680864984453</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.645344691987564</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.996275753590051</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22.877020602872044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.181616482297635</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.345293185838109</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.63623454867049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.028987638936396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.383190111149119</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23.666552088919296</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.873241671135439</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.258593336908351</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.486874669526685</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.749499735621349</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.63959978849708</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.791679830797662</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.933343864638132</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.886675091710508</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23.729340073368409</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.723472058694725</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.67877764695578</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.583022117564624</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.666417694051702</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.873134155241363</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.23850732419309</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.210805859354473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F43-4928-8F44-A29A7F1AAABC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594594895"/>
+        <c:axId val="591468399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594594895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591468399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591468399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594594895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Annual Smoothing</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Annual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-507A-469E-AFA1-C7FAD65213EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Smoothing alpha=0.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.688000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.690400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.652320000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.581856000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.485484800000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.468387840000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.394710272000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5757682176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.480614574080001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.784491659263999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.827593327411201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.842074661928962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.653659729543172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.762927783634538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.810342226907633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.068273781526106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.034619025220884</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.007695220176707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.926156176141369</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.920924940913096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.056739952730478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.105391962184385</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.124313569747507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.119450855798007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.995560684638406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.976448547710724</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.90115883816858</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.940927070534865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.072741656427894</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.158193325142314</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.246554660113851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.177243728091081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.061794982472868</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.069435985978295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.995548788782635</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.01643903102611</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.153151224820888</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.182520979856712</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.24601678388537</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.216813427108299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.053450741686639</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.142760593349312</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.134208474679451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.027366779743559</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.921893423794849</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.977514739035879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.942011791228705</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.053609432982967</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.182887546386375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.206310037109102</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.265048029687282</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.232038423749827</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.185630738999862</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.308504591199892</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.366803672959914</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.573442938367933</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.518754350694348</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.61500348055548</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.572002784444383</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.517602227555507</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.614081782044408</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.731265425635527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.885012340508425</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.92800987240674</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.842407897925391</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.913926318340312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.931141054672253</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.904912843737804</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.783930274990244</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.747144219992197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-507A-469E-AFA1-C7FAD65213EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="634939919"/>
+        <c:axId val="591473199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634939919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591473199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591473199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634939919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2117,6 +3754,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3188,6 +4905,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3233,16 +5982,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3262,6 +6011,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6027CAF0-F173-391A-D8ED-586EB4E4BF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652461</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29FC4FF-6602-60A4-8B4E-114EB6937EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3569,8 +6390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCDCFE9-9BBB-446A-82AA-D850D2597A93}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7141,7 +9962,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7553,10 +10374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04363731-26FC-400B-880D-72853FCF1D1F}">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,2477 +10385,3172 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.7109375" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>26</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D2">
-        <f>J$2*$A2+J$3</f>
+      <c r="D3">
+        <f>L$3*$A3+L$4</f>
         <v>22.189147305276052</v>
       </c>
-      <c r="E2">
-        <f>K$2*$A2+K$3</f>
+      <c r="E3">
+        <f>M$3*$A3+M$4</f>
         <v>18.525587317999978</v>
       </c>
-      <c r="F2">
-        <f>(B2-D2)^2</f>
+      <c r="F3">
+        <f>(B3-D3)^2</f>
         <v>14.522598260884777</v>
       </c>
-      <c r="G2">
-        <f>(C2-E2)^2</f>
+      <c r="G3">
+        <f>(C3-E3)^2</f>
         <v>0.22506739284245386</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="6">
+      <c r="L3" s="6">
         <v>2.8117001261954409E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M3" s="6">
         <v>1.820062910336135E-2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A2+1</f>
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>23.4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>18.8</v>
       </c>
-      <c r="D3">
-        <f>J$2*$A3+J$3</f>
+      <c r="D4">
+        <f>L$3*$A4+L$4</f>
         <v>22.217264306538006</v>
       </c>
-      <c r="E3">
-        <f>K$2*$A3+K$3</f>
+      <c r="E4">
+        <f>M$3*$A4+M$4</f>
         <v>18.54378794710334</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(B3-D3)^2</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">(B4-D4)^2</f>
         <v>1.3988637205890211</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">(C3-E3)^2</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">(C4-E4)^2</f>
         <v>6.5644616049521376E-2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H4">
+        <f>B3</f>
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <f>C3</f>
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="6">
+      <c r="L4" s="6">
         <v>22.161030304014098</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M4" s="6">
         <v>18.507386688896617</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">A3+1</f>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>20.7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>17.600000000000001</v>
       </c>
-      <c r="D4">
-        <f>J$2*$A4+J$3</f>
+      <c r="D5">
+        <f>L$3*$A5+L$4</f>
         <v>22.24538130779996</v>
       </c>
-      <c r="E4">
-        <f>K$2*$A4+K$3</f>
+      <c r="E5">
+        <f>M$3*$A5+M$4</f>
         <v>18.561988576206701</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>2.3882033864975165</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>0.92542202075219382</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H5">
+        <f>(1-H$2)*H4+H$2*B4</f>
+        <v>25.48</v>
+      </c>
+      <c r="I5">
+        <f>(1-I$2)*I4+I$2*C4</f>
+        <v>18.96</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6">
-        <f>SUM(F2:F74)</f>
+      <c r="L5" s="6">
+        <f>SUM(F3:F75)</f>
         <v>224.26763393370499</v>
       </c>
-      <c r="K4" s="6">
-        <f>SUM(G2:G74)</f>
+      <c r="M5" s="6">
+        <f>SUM(G3:G75)</f>
         <v>15.936941586174319</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="S5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>21.5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>18.7</v>
       </c>
-      <c r="D5">
-        <f>J$2*$A5+J$3</f>
+      <c r="D6">
+        <f>L$3*$A6+L$4</f>
         <v>22.273498309061914</v>
       </c>
-      <c r="E5">
-        <f>K$2*$A5+K$3</f>
+      <c r="E6">
+        <f>M$3*$A6+M$4</f>
         <v>18.580189205310063</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0.59829963412164</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>1.4354626524234061E-2</v>
       </c>
-      <c r="P5" t="s">
+      <c r="H6">
+        <f>(1-H$2)*H5+H$2*B5</f>
+        <v>24.524000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I69" si="3">(1-I$2)*I5+I$2*C5</f>
+        <v>18.688000000000002</v>
+      </c>
+      <c r="R6" t="s">
         <v>17</v>
       </c>
-      <c r="Q5">
+      <c r="S6">
         <v>0.32020944338404028</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB6" t="s">
         <v>17</v>
       </c>
-      <c r="AA5">
+      <c r="AC6">
         <v>0.63443673555975366</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>24.3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>18.5</v>
       </c>
-      <c r="D6">
-        <f>J$2*$A6+J$3</f>
+      <c r="D7">
+        <f>L$3*$A7+L$4</f>
         <v>22.301615310323871</v>
       </c>
-      <c r="E6">
-        <f>K$2*$A6+K$3</f>
+      <c r="E7">
+        <f>M$3*$A7+M$4</f>
         <v>18.598389834413425</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>3.9935413679319596</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>9.6805595159011187E-3</v>
       </c>
-      <c r="P6" t="s">
+      <c r="H7">
+        <f t="shared" ref="H7:H70" si="4">(1-H$2)*H6+H$2*B6</f>
+        <v>23.919200000000004</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>18.690400000000004</v>
+      </c>
+      <c r="R7" t="s">
         <v>18</v>
       </c>
-      <c r="Q6">
+      <c r="S7">
         <v>0.10253408763231689</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB7" t="s">
         <v>18</v>
       </c>
-      <c r="AA6">
+      <c r="AC7">
         <v>0.40250997142771683</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>21.3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>18.3</v>
       </c>
-      <c r="D7">
-        <f>J$2*$A7+J$3</f>
+      <c r="D8">
+        <f>L$3*$A8+L$4</f>
         <v>22.329732311585825</v>
       </c>
-      <c r="E7">
-        <f>K$2*$A7+K$3</f>
+      <c r="E8">
+        <f>M$3*$A8+M$4</f>
         <v>18.616590463516786</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>1.0603486335238861</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>0.10022952158977312</v>
       </c>
-      <c r="P7" t="s">
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>23.995360000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>18.652320000000003</v>
+      </c>
+      <c r="R8" t="s">
         <v>19</v>
       </c>
-      <c r="Q7">
+      <c r="S8">
         <v>8.9893722669391773E-2</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB8" t="s">
         <v>19</v>
       </c>
-      <c r="AA7">
+      <c r="AC8">
         <v>0.39409461891261421</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>19.399999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>18.100000000000001</v>
       </c>
-      <c r="D8">
-        <f>J$2*$A8+J$3</f>
+      <c r="D9">
+        <f>L$3*$A9+L$4</f>
         <v>22.35784931284778</v>
       </c>
-      <c r="E8">
-        <f>K$2*$A8+K$3</f>
+      <c r="E9">
+        <f>M$3*$A9+M$4</f>
         <v>18.634791092620144</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>8.7488725575140904</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>0.28600151274584629</v>
       </c>
-      <c r="P8" t="s">
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>23.456288000000004</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>18.581856000000002</v>
+      </c>
+      <c r="R9" t="s">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="S9">
         <v>1.777272930370716</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB9" t="s">
         <v>20</v>
       </c>
-      <c r="AA8">
+      <c r="AC9">
         <v>0.47377628233391783</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>22.6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>18.399999999999999</v>
       </c>
-      <c r="D9">
-        <f>J$2*$A9+J$3</f>
+      <c r="D10">
+        <f>L$3*$A10+L$4</f>
         <v>22.385966314109734</v>
       </c>
-      <c r="E9">
-        <f>K$2*$A9+K$3</f>
+      <c r="E10">
+        <f>M$3*$A10+M$4</f>
         <v>18.652991721723506</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>4.5810418695773833E-2</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>6.4004811260624586E-2</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>22.645030400000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>18.485484800000002</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S10" s="1">
         <v>73</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC10" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>18.100000000000001</v>
       </c>
-      <c r="D10">
-        <f>J$2*$A10+J$3</f>
+      <c r="D11">
+        <f>L$3*$A11+L$4</f>
         <v>22.414083315371688</v>
       </c>
-      <c r="E10">
-        <f>K$2*$A10+K$3</f>
+      <c r="E11">
+        <f>M$3*$A11+M$4</f>
         <v>18.671192350826868</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>5.8277982535559589</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>0.32626070164312171</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>22.636024320000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>18.468387840000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>20.2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>19.3</v>
       </c>
-      <c r="D11">
-        <f>J$2*$A11+J$3</f>
+      <c r="D12">
+        <f>L$3*$A12+L$4</f>
         <v>22.442200316633642</v>
       </c>
-      <c r="E11">
-        <f>K$2*$A11+K$3</f>
+      <c r="E12">
+        <f>M$3*$A12+M$4</f>
         <v>18.689392979930229</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>5.0274622599120065</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>0.37284093295848636</v>
       </c>
-      <c r="P11" t="s">
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>22.108819456000003</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>18.394710272000001</v>
+      </c>
+      <c r="R12" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>26.2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>18.100000000000001</v>
       </c>
-      <c r="D12">
-        <f>J$2*$A12+J$3</f>
+      <c r="D13">
+        <f>L$3*$A13+L$4</f>
         <v>22.470317317895596</v>
       </c>
-      <c r="E12">
-        <f>K$2*$A12+K$3</f>
+      <c r="E13">
+        <f>M$3*$A13+M$4</f>
         <v>18.707593609033591</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>13.910532909189497</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>0.36916999373846227</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>21.727055564800001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>18.5757682176</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>24.2</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="D13">
-        <f>J$2*$A13+J$3</f>
+      <c r="D14">
+        <f>L$3*$A14+L$4</f>
         <v>22.49843431915755</v>
       </c>
-      <c r="E13">
-        <f>K$2*$A13+K$3</f>
+      <c r="E14">
+        <f>M$3*$A14+M$4</f>
         <v>18.725794238136952</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>2.8953257662208287</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>1.6236003235649894</v>
       </c>
-      <c r="P13" t="s">
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>22.621644451839998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>18.480614574080001</v>
+      </c>
+      <c r="R14" t="s">
         <v>23</v>
       </c>
-      <c r="Q13">
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="R13">
+      <c r="T14">
         <v>25.622229112674233</v>
       </c>
-      <c r="S13">
+      <c r="U14">
         <v>25.622229112674233</v>
       </c>
-      <c r="T13">
+      <c r="V14">
         <v>8.1116398089022752</v>
       </c>
-      <c r="U13">
+      <c r="W14">
         <v>5.748878200662169E-3</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB14" t="s">
         <v>23</v>
       </c>
-      <c r="AA13">
+      <c r="AC14">
         <v>1</v>
       </c>
-      <c r="AB13">
+      <c r="AD14">
         <v>10.736209120078955</v>
       </c>
-      <c r="AC13">
+      <c r="AE14">
         <v>10.736209120078955</v>
       </c>
-      <c r="AD13">
+      <c r="AF14">
         <v>47.830434994298088</v>
       </c>
-      <c r="AE13">
+      <c r="AG14">
         <v>1.6737823707040982E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>22.4</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="D14">
-        <f>J$2*$A14+J$3</f>
+      <c r="D15">
+        <f>L$3*$A15+L$4</f>
         <v>22.526551320419504</v>
       </c>
-      <c r="E14">
-        <f>K$2*$A14+K$3</f>
+      <c r="E15">
+        <f>M$3*$A15+M$4</f>
         <v>18.743994867240314</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>1.601523669992028E-2</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>6.5538627999304433E-2</v>
       </c>
-      <c r="P14" t="s">
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>22.937315561471998</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>18.784491659263999</v>
+      </c>
+      <c r="R15" t="s">
         <v>24</v>
       </c>
-      <c r="Q14">
+      <c r="S15">
         <v>71</v>
       </c>
-      <c r="R14">
+      <c r="T15">
         <v>224.26763390102434</v>
       </c>
-      <c r="S14">
+      <c r="U15">
         <v>3.1586990690285117</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB15" t="s">
         <v>24</v>
       </c>
-      <c r="AA14">
+      <c r="AC15">
         <v>71</v>
       </c>
-      <c r="AB14">
+      <c r="AD15">
         <v>15.936941564852523</v>
       </c>
-      <c r="AC14">
+      <c r="AE15">
         <v>0.22446396570214822</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>23.1</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>18.899999999999999</v>
       </c>
-      <c r="D15">
-        <f>J$2*$A15+J$3</f>
+      <c r="D16">
+        <f>L$3*$A16+L$4</f>
         <v>22.554668321681458</v>
       </c>
-      <c r="E15">
-        <f>K$2*$A15+K$3</f>
+      <c r="E16">
+        <f>M$3*$A16+M$4</f>
         <v>18.762195496343676</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0.29738663937771947</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>1.8990081227965513E-2</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>22.829852449177601</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>18.827593327411201</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S16" s="1">
         <v>72</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T16" s="1">
         <v>249.88986301369857</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="Z15" s="1" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="AB16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC16" s="1">
         <v>72</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AD16" s="1">
         <v>26.673150684931478</v>
       </c>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>18.7</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>17.899999999999999</v>
       </c>
-      <c r="D16">
-        <f>J$2*$A16+J$3</f>
+      <c r="D17">
+        <f>L$3*$A17+L$4</f>
         <v>22.582785322943415</v>
       </c>
-      <c r="E16">
-        <f>K$2*$A16+K$3</f>
+      <c r="E17">
+        <f>M$3*$A17+M$4</f>
         <v>18.780396125447037</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>15.076021864064808</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>0.77509733770215794</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>22.883881959342084</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>18.842074661928962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>25.1</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>19.2</v>
       </c>
-      <c r="D17">
-        <f>J$2*$A17+J$3</f>
+      <c r="D18">
+        <f>L$3*$A18+L$4</f>
         <v>22.610902324205369</v>
       </c>
-      <c r="E17">
-        <f>K$2*$A17+K$3</f>
+      <c r="E18">
+        <f>M$3*$A18+M$4</f>
         <v>18.798596754550399</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>6.1956072396462387</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>0.16112456545747211</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>22.047105567473665</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>18.653659729543172</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2" t="s">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AH18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>22.4</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>19</v>
       </c>
-      <c r="D18">
-        <f>J$2*$A18+J$3</f>
+      <c r="D19">
+        <f>L$3*$A19+L$4</f>
         <v>22.639019325467324</v>
       </c>
-      <c r="E18">
-        <f>K$2*$A18+K$3</f>
+      <c r="E19">
+        <f>M$3*$A19+M$4</f>
         <v>18.816797383653761</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>5.7130237946855018E-2</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>3.3563198636107405E-2</v>
       </c>
-      <c r="P18" t="s">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>22.657684453978931</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>18.762927783634538</v>
+      </c>
+      <c r="R19" t="s">
         <v>26</v>
       </c>
-      <c r="Q18">
+      <c r="S19">
         <v>22.161073059360731</v>
       </c>
-      <c r="R18">
+      <c r="T19">
         <v>0.42033941273417791</v>
       </c>
-      <c r="S18">
+      <c r="U19">
         <v>52.721853787656514</v>
       </c>
-      <c r="T18">
+      <c r="V19">
         <v>1.1209170631132626E-58</v>
       </c>
-      <c r="U18">
+      <c r="W19">
         <v>21.322940075095293</v>
       </c>
-      <c r="V18">
+      <c r="X19">
         <v>22.99920604362617</v>
       </c>
-      <c r="W18">
+      <c r="Y19">
         <v>21.322940075095293</v>
       </c>
-      <c r="X18">
+      <c r="Z19">
         <v>22.99920604362617</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB19" t="s">
         <v>26</v>
       </c>
-      <c r="AA18">
+      <c r="AC19">
         <v>18.507420091324203</v>
       </c>
-      <c r="AB18">
+      <c r="AD19">
         <v>0.11205192004026171</v>
       </c>
-      <c r="AC18">
+      <c r="AE19">
         <v>165.16825490071253</v>
       </c>
-      <c r="AD18">
+      <c r="AF19">
         <v>1.5210437567961203E-93</v>
       </c>
-      <c r="AE18">
+      <c r="AG19">
         <v>18.283994908505555</v>
       </c>
-      <c r="AF18">
+      <c r="AH19">
         <v>18.730845274142851</v>
       </c>
-      <c r="AG18">
+      <c r="AI19">
         <v>18.283994908505555</v>
       </c>
-      <c r="AH18">
+      <c r="AJ19">
         <v>18.730845274142851</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>22.6</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>20.100000000000001</v>
       </c>
-      <c r="D19">
-        <f>J$2*$A19+J$3</f>
+      <c r="D20">
+        <f>L$3*$A20+L$4</f>
         <v>22.667136326729278</v>
       </c>
-      <c r="E19">
-        <f>K$2*$A19+K$3</f>
+      <c r="E20">
+        <f>M$3*$A20+M$4</f>
         <v>18.834998012757122</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>4.5072863667001209E-3</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>1.6002300277284336</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>22.606147563183146</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>18.810342226907633</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S20" s="1">
         <v>2.811612982845859E-2</v>
       </c>
-      <c r="R19" s="1">
+      <c r="T20" s="1">
         <v>9.871910539718207E-3</v>
       </c>
-      <c r="S19" s="1">
+      <c r="U20" s="1">
         <v>2.8480940660206957</v>
       </c>
-      <c r="T19" s="1">
+      <c r="V20" s="1">
         <v>5.7488782006621152E-3</v>
       </c>
-      <c r="U19" s="1">
+      <c r="W20" s="1">
         <v>8.4320992798221292E-3</v>
       </c>
-      <c r="V19" s="1">
+      <c r="X20" s="1">
         <v>4.7800160377095051E-2</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Y20" s="1">
         <v>8.4320992798221292E-3</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Z20" s="1">
         <v>4.7800160377095051E-2</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AC20" s="1">
         <v>1.8200049364432931E-2</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AD20" s="1">
         <v>2.631603168605699E-3</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AE20" s="1">
         <v>6.9159551035484785</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AF20" s="1">
         <v>1.6737823707040136E-9</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AG20" s="1">
         <v>1.2952781679590061E-2</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AH20" s="1">
         <v>2.3447317049275801E-2</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AI20" s="1">
         <v>1.2952781679590061E-2</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AJ20" s="1">
         <v>2.3447317049275801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>21.7</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>18.899999999999999</v>
       </c>
-      <c r="D20">
-        <f>J$2*$A20+J$3</f>
+      <c r="D21">
+        <f>L$3*$A21+L$4</f>
         <v>22.695253327991232</v>
       </c>
-      <c r="E20">
-        <f>K$2*$A20+K$3</f>
+      <c r="E21">
+        <f>M$3*$A21+M$4</f>
         <v>18.853198641860484</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>0.99052918687762348</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>2.1903671237031284E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>22.604918050546516</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>19.068273781526106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>20.7</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>18.899999999999999</v>
       </c>
-      <c r="D21">
-        <f>J$2*$A21+J$3</f>
+      <c r="D22">
+        <f>L$3*$A22+L$4</f>
         <v>22.723370329253186</v>
       </c>
-      <c r="E21">
-        <f>K$2*$A21+K$3</f>
+      <c r="E22">
+        <f>M$3*$A22+M$4</f>
         <v>18.871399270963842</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>4.0940274893021478</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>8.1800170139965901E-4</v>
       </c>
-      <c r="Q21">
-        <f>Q19*Q15</f>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>22.423934440437215</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>19.034619025220884</v>
+      </c>
+      <c r="S22">
+        <f>S20*S16</f>
         <v>2.0243613476490183</v>
       </c>
-      <c r="AA21">
-        <f>AA19*AA15</f>
+      <c r="AC22">
+        <f>AC20*AC16</f>
         <v>1.310403554239171</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>22.7</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>18.600000000000001</v>
       </c>
-      <c r="D22">
-        <f>J$2*$A22+J$3</f>
+      <c r="D23">
+        <f>L$3*$A23+L$4</f>
         <v>22.75148733051514</v>
       </c>
-      <c r="E22">
-        <f>K$2*$A22+K$3</f>
+      <c r="E23">
+        <f>M$3*$A23+M$4</f>
         <v>18.889599900067203</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>2.6509452035753107E-3</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>8.3868102118933405E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>22.079147552349774</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>19.007695220176707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>21.4</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>18.899999999999999</v>
       </c>
-      <c r="D23">
-        <f>J$2*$A23+J$3</f>
+      <c r="D24">
+        <f>L$3*$A24+L$4</f>
         <v>22.779604331777094</v>
       </c>
-      <c r="E23">
-        <f>K$2*$A23+K$3</f>
+      <c r="E24">
+        <f>M$3*$A24+M$4</f>
         <v>18.907800529170565</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>1.9033081122581252</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>6.0848255340858982E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>22.203318041879818</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>18.926156176141369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>25.1</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>19.600000000000001</v>
       </c>
-      <c r="D24">
-        <f>J$2*$A24+J$3</f>
+      <c r="D25">
+        <f>L$3*$A25+L$4</f>
         <v>22.807721333039048</v>
       </c>
-      <c r="E24">
-        <f>K$2*$A24+K$3</f>
+      <c r="E25">
+        <f>M$3*$A25+M$4</f>
         <v>18.926001158273927</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>5.2545414870042864</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>0.45427443864809031</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>22.042654433503856</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>18.920924940913096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>25.5</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>19.3</v>
       </c>
-      <c r="D25">
-        <f>J$2*$A25+J$3</f>
+      <c r="D26">
+        <f>L$3*$A26+L$4</f>
         <v>22.835838334301002</v>
       </c>
-      <c r="E25">
-        <f>K$2*$A25+K$3</f>
+      <c r="E26">
+        <f>M$3*$A26+M$4</f>
         <v>18.944201787377288</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>7.0977573809800605</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>0.12659236810551686</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>22.654123546803085</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>19.056739952730478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>19.2</v>
       </c>
-      <c r="D26">
-        <f>J$2*$A26+J$3</f>
+      <c r="D27">
+        <f>L$3*$A27+L$4</f>
         <v>22.863955335562959</v>
       </c>
-      <c r="E26">
-        <f>K$2*$A26+K$3</f>
+      <c r="E27">
+        <f>M$3*$A27+M$4</f>
         <v>18.96240241648065</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>0.74641882184770592</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>5.6452611694234184E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>23.223298837442471</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>19.105391962184385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>24.4</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>19.100000000000001</v>
       </c>
-      <c r="D27">
-        <f>J$2*$A27+J$3</f>
+      <c r="D28">
+        <f>L$3*$A28+L$4</f>
         <v>22.892072336824913</v>
       </c>
-      <c r="E27">
-        <f>K$2*$A27+K$3</f>
+      <c r="E28">
+        <f>M$3*$A28+M$4</f>
         <v>18.980603045584012</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>2.2738458373686727</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>1.4255632723813959E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>22.978639069953978</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>19.124313569747507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>22.3</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>18.5</v>
       </c>
-      <c r="D28">
-        <f>J$2*$A28+J$3</f>
+      <c r="D29">
+        <f>L$3*$A29+L$4</f>
         <v>22.920189338086868</v>
       </c>
-      <c r="E28">
-        <f>K$2*$A28+K$3</f>
+      <c r="E29">
+        <f>M$3*$A29+M$4</f>
         <v>18.998803674687373</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>0.384634815076626</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>0.24880510588162683</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>23.262911255963182</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>19.119450855798007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>24</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>18.899999999999999</v>
       </c>
-      <c r="D29">
-        <f>J$2*$A29+J$3</f>
+      <c r="D30">
+        <f>L$3*$A30+L$4</f>
         <v>22.948306339348822</v>
       </c>
-      <c r="E29">
-        <f>K$2*$A29+K$3</f>
+      <c r="E30">
+        <f>M$3*$A30+M$4</f>
         <v>19.017004303790735</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>1.1060595558538759</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>1.3690007105554892E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>23.070329004770546</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>18.995560684638406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>22.2</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>18.600000000000001</v>
       </c>
-      <c r="D30">
-        <f>J$2*$A30+J$3</f>
+      <c r="D31">
+        <f>L$3*$A31+L$4</f>
         <v>22.976423340610776</v>
       </c>
-      <c r="E30">
-        <f>K$2*$A30+K$3</f>
+      <c r="E31">
+        <f>M$3*$A31+M$4</f>
         <v>19.035204932894096</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>0.60283320384519756</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>0.18940333361535375</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>23.256263203816438</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>18.976448547710724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>23.3</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>19.100000000000001</v>
       </c>
-      <c r="D31">
-        <f>J$2*$A31+J$3</f>
+      <c r="D32">
+        <f>L$3*$A32+L$4</f>
         <v>23.00454034187273</v>
       </c>
-      <c r="E31">
-        <f>K$2*$A31+K$3</f>
+      <c r="E32">
+        <f>M$3*$A32+M$4</f>
         <v>19.053405561997458</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>8.7296409580683881E-2</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>2.1710416527728578E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>23.045010563053154</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>18.90115883816858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>26.1</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>19.600000000000001</v>
       </c>
-      <c r="D32">
-        <f>J$2*$A32+J$3</f>
+      <c r="D33">
+        <f>L$3*$A33+L$4</f>
         <v>23.032657343134684</v>
       </c>
-      <c r="E32">
-        <f>K$2*$A32+K$3</f>
+      <c r="E33">
+        <f>M$3*$A33+M$4</f>
         <v>19.07160619110082</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>9.4085909746255858</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>0.27920001728298499</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>23.096008450442525</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>18.940927070534865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>23.2</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>19.5</v>
       </c>
-      <c r="D33">
-        <f>J$2*$A33+J$3</f>
+      <c r="D34">
+        <f>L$3*$A34+L$4</f>
         <v>23.060774344396638</v>
       </c>
-      <c r="E33">
-        <f>K$2*$A33+K$3</f>
+      <c r="E34">
+        <f>M$3*$A34+M$4</f>
         <v>19.089806820204181</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>1.9383783178185836E-2</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>0.16825844475100485</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>23.696806760354022</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>19.072741656427894</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>23.3</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>19.600000000000001</v>
       </c>
-      <c r="D34">
-        <f>J$2*$A34+J$3</f>
+      <c r="D35">
+        <f>L$3*$A35+L$4</f>
         <v>23.088891345658592</v>
       </c>
-      <c r="E34">
-        <f>K$2*$A34+K$3</f>
+      <c r="E35">
+        <f>M$3*$A35+M$4</f>
         <v>19.108007449307543</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>4.4566863937840463E-2</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>0.24205666993687136</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>23.597445408283217</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>19.158193325142314</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>24.4</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>18.899999999999999</v>
       </c>
-      <c r="D35">
-        <f>J$2*$A35+J$3</f>
+      <c r="D36">
+        <f>L$3*$A36+L$4</f>
         <v>23.117008346920549</v>
       </c>
-      <c r="E35">
-        <f>K$2*$A35+K$3</f>
+      <c r="E36">
+        <f>M$3*$A36+M$4</f>
         <v>19.126208078410901</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>1.6460675818715376</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>5.1170094738352968E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>23.537956326626574</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>19.246554660113851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>22.1</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>18.600000000000001</v>
       </c>
-      <c r="D36">
-        <f>J$2*$A36+J$3</f>
+      <c r="D37">
+        <f>L$3*$A37+L$4</f>
         <v>23.145125348182503</v>
       </c>
-      <c r="E36">
-        <f>K$2*$A36+K$3</f>
+      <c r="E37">
+        <f>M$3*$A37+M$4</f>
         <v>19.144408707514263</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>1.0922869934135961</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>0.29638084081734839</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>23.71036506130126</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>19.177243728091081</v>
+      </c>
+      <c r="N37">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>21.4</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>19.100000000000001</v>
       </c>
-      <c r="D37">
-        <f>J$2*$A37+J$3</f>
+      <c r="D38">
+        <f>L$3*$A38+L$4</f>
         <v>23.173242349444457</v>
       </c>
-      <c r="E37">
-        <f>K$2*$A37+K$3</f>
+      <c r="E38">
+        <f>M$3*$A38+M$4</f>
         <v>19.162609336617624</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>3.1443884298633047</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>3.9199290316988033E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>23.388292049041009</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>19.061794982472868</v>
+      </c>
+      <c r="N38">
+        <f>0.98*N37+0.02*M37</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>0.05*M37+0.95*O37</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>0.1*M37+0.9*P37</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>0.15*M37+0.85*Q37</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>0.2*M37+0.8*R37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>21.1</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>18.7</v>
       </c>
-      <c r="D38">
-        <f>J$2*$A38+J$3</f>
+      <c r="D39">
+        <f>L$3*$A39+L$4</f>
         <v>23.201359350706412</v>
       </c>
-      <c r="E38">
-        <f>K$2*$A38+K$3</f>
+      <c r="E39">
+        <f>M$3*$A39+M$4</f>
         <v>19.180809965720986</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>4.4157111208012658</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>0.23117822313661626</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>22.990633639232808</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>19.069435985978295</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N40" si="5">0.98*N38+0.02*M38</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O40" si="6">0.05*M38+0.95*O38</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39:P40" si="7">0.1*M38+0.9*P38</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q40" si="8">0.15*M38+0.85*Q38</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R40" si="9">0.2*M38+0.8*R38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>23.1</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>19.100000000000001</v>
       </c>
-      <c r="D39">
-        <f>J$2*$A39+J$3</f>
+      <c r="D40">
+        <f>L$3*$A40+L$4</f>
         <v>23.229476351968366</v>
       </c>
-      <c r="E39">
-        <f>K$2*$A39+K$3</f>
+      <c r="E40">
+        <f>M$3*$A40+M$4</f>
         <v>19.199010594824347</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>1.6764125719035718E-2</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <f t="shared" si="1"/>
         <v>9.8030978874708193E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>22.612506911386248</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>18.995548788782635</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>23.5</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>19.7</v>
       </c>
-      <c r="D40">
-        <f>J$2*$A40+J$3</f>
+      <c r="D41">
+        <f>L$3*$A41+L$4</f>
         <v>23.25759335323032</v>
       </c>
-      <c r="E40">
-        <f>K$2*$A40+K$3</f>
+      <c r="E41">
+        <f>M$3*$A41+M$4</f>
         <v>19.217211223927709</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>5.8760982398120595E-2</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>0.23308500230137996</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>22.710005529109001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>19.01643903102611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>24.7</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>19.3</v>
       </c>
-      <c r="D41">
-        <f>J$2*$A41+J$3</f>
+      <c r="D42">
+        <f>L$3*$A42+L$4</f>
         <v>23.285710354492274</v>
       </c>
-      <c r="E41">
-        <f>K$2*$A41+K$3</f>
+      <c r="E42">
+        <f>M$3*$A42+M$4</f>
         <v>19.235411853031071</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>2.0002152013903682</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>4.1716287288801022E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>22.8680044232872</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>19.153151224820888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>23.6</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>19.5</v>
       </c>
-      <c r="D42">
-        <f>J$2*$A42+J$3</f>
+      <c r="D43">
+        <f>L$3*$A43+L$4</f>
         <v>23.313827355754228</v>
       </c>
-      <c r="E42">
-        <f>K$2*$A42+K$3</f>
+      <c r="E43">
+        <f>M$3*$A43+M$4</f>
         <v>19.253612482134432</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>8.1894782314618164E-2</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>6.0706808959955429E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>23.234403538629763</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>19.182520979856712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>22.1</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>19.100000000000001</v>
       </c>
-      <c r="D43">
-        <f>J$2*$A43+J$3</f>
+      <c r="D44">
+        <f>L$3*$A44+L$4</f>
         <v>23.341944357016182</v>
       </c>
-      <c r="E43">
-        <f>K$2*$A43+K$3</f>
+      <c r="E44">
+        <f>M$3*$A44+M$4</f>
         <v>19.271813111237794</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>1.5424257859243335</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>2.9519745193210069E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>23.307522830903814</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>19.24601678388537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>22.9</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>18.399999999999999</v>
       </c>
-      <c r="D44">
-        <f>J$2*$A44+J$3</f>
+      <c r="D45">
+        <f>L$3*$A45+L$4</f>
         <v>23.370061358278136</v>
       </c>
-      <c r="E44">
-        <f>K$2*$A44+K$3</f>
+      <c r="E45">
+        <f>M$3*$A45+M$4</f>
         <v>19.290013740341156</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>0.22095768054628728</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>0.79212445799605646</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>23.066018264723052</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>19.216813427108299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>22.1</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>19.5</v>
       </c>
-      <c r="D45">
-        <f>J$2*$A45+J$3</f>
+      <c r="D46">
+        <f>L$3*$A46+L$4</f>
         <v>23.39817835954009</v>
       </c>
-      <c r="E45">
-        <f>K$2*$A45+K$3</f>
+      <c r="E46">
+        <f>M$3*$A46+M$4</f>
         <v>19.308214369444517</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>1.685267053178195</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>3.6781728087564143E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>23.032814611778441</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>19.053450741686639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>25.3</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>19.100000000000001</v>
       </c>
-      <c r="D46">
-        <f>J$2*$A46+J$3</f>
+      <c r="D47">
+        <f>L$3*$A47+L$4</f>
         <v>23.426295360802047</v>
       </c>
-      <c r="E46">
-        <f>K$2*$A46+K$3</f>
+      <c r="E47">
+        <f>M$3*$A47+M$4</f>
         <v>19.326414998547879</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>3.510769074951932</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <f t="shared" si="1"/>
         <v>5.1263751567435317E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>22.846251689422754</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>19.142760593349312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>21.1</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>18.600000000000001</v>
       </c>
-      <c r="D47">
-        <f>J$2*$A47+J$3</f>
+      <c r="D48">
+        <f>L$3*$A48+L$4</f>
         <v>23.454412362064001</v>
       </c>
-      <c r="E47">
-        <f>K$2*$A47+K$3</f>
+      <c r="E48">
+        <f>M$3*$A48+M$4</f>
         <v>19.344615627651237</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>5.543257570639784</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>0.55445243294244329</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>23.337001351538206</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>19.134208474679451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>21.6</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>18.5</v>
       </c>
-      <c r="D48">
-        <f>J$2*$A48+J$3</f>
+      <c r="D49">
+        <f>L$3*$A49+L$4</f>
         <v>23.482529363325956</v>
       </c>
-      <c r="E48">
-        <f>K$2*$A48+K$3</f>
+      <c r="E49">
+        <f>M$3*$A49+M$4</f>
         <v>19.362816256754598</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>3.543916803784422</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <f t="shared" si="1"/>
         <v>0.74445189292001723</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>22.889601081230566</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>19.027366779743559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>22.7</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>19.2</v>
       </c>
-      <c r="D49">
-        <f>J$2*$A49+J$3</f>
+      <c r="D50">
+        <f>L$3*$A50+L$4</f>
         <v>23.51064636458791</v>
       </c>
-      <c r="E49">
-        <f>K$2*$A49+K$3</f>
+      <c r="E50">
+        <f>M$3*$A50+M$4</f>
         <v>19.38101688585796</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>0.65714752841959512</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <f t="shared" si="1"/>
         <v>3.2767112965714017E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>22.631680864984453</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>18.921893423794849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>24.4</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>18.8</v>
       </c>
-      <c r="D50">
-        <f>J$2*$A50+J$3</f>
+      <c r="D51">
+        <f>L$3*$A51+L$4</f>
         <v>23.538763365849864</v>
       </c>
-      <c r="E50">
-        <f>K$2*$A50+K$3</f>
+      <c r="E51">
+        <f>M$3*$A51+M$4</f>
         <v>19.399217514961322</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>0.74172854000225341</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>0.35906163023642101</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>22.645344691987564</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>18.977514739035879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>22.4</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>19.5</v>
       </c>
-      <c r="D51">
-        <f>J$2*$A51+J$3</f>
+      <c r="D52">
+        <f>L$3*$A52+L$4</f>
         <v>23.566880367111818</v>
       </c>
-      <c r="E51">
-        <f>K$2*$A51+K$3</f>
+      <c r="E52">
+        <f>M$3*$A52+M$4</f>
         <v>19.417418144064683</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>1.3616097911510137</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>6.8197629297213919E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>22.996275753590051</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>18.942011791228705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>24.4</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>19.7</v>
       </c>
-      <c r="D52">
-        <f>J$2*$A52+J$3</f>
+      <c r="D53">
+        <f>L$3*$A53+L$4</f>
         <v>23.594997368373772</v>
       </c>
-      <c r="E52">
-        <f>K$2*$A52+K$3</f>
+      <c r="E53">
+        <f>M$3*$A53+M$4</f>
         <v>19.435618773168045</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>0.64802923692515069</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>6.9897433101169276E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>22.877020602872044</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>19.053609432982967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>19</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>19.3</v>
       </c>
-      <c r="D53">
-        <f>J$2*$A53+J$3</f>
+      <c r="D54">
+        <f>L$3*$A54+L$4</f>
         <v>23.623114369635726</v>
       </c>
-      <c r="E53">
-        <f>K$2*$A53+K$3</f>
+      <c r="E54">
+        <f>M$3*$A54+M$4</f>
         <v>19.453819402271407</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>21.373186474732332</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <f t="shared" si="1"/>
         <v>2.3660408515132587E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>23.181616482297635</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>19.182887546386375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>23.8</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>19.5</v>
       </c>
-      <c r="D54">
-        <f>J$2*$A54+J$3</f>
+      <c r="D55">
+        <f>L$3*$A55+L$4</f>
         <v>23.65123137089768</v>
       </c>
-      <c r="E54">
-        <f>K$2*$A54+K$3</f>
+      <c r="E55">
+        <f>M$3*$A55+M$4</f>
         <v>19.472020031374768</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>2.2132105004983926E-2</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <f t="shared" si="1"/>
         <v>7.8287864426895457E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>22.345293185838109</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>19.206310037109102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>24.6</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>19.100000000000001</v>
       </c>
-      <c r="D55">
-        <f>J$2*$A55+J$3</f>
+      <c r="D56">
+        <f>L$3*$A56+L$4</f>
         <v>23.679348372159637</v>
       </c>
-      <c r="E55">
-        <f>K$2*$A55+K$3</f>
+      <c r="E56">
+        <f>M$3*$A56+M$4</f>
         <v>19.49022066047813</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>0.84759941984511211</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <f t="shared" si="1"/>
         <v>0.15227216386398679</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>22.63623454867049</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>19.265048029687282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>24.8</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>19</v>
       </c>
-      <c r="D56">
-        <f>J$2*$A56+J$3</f>
+      <c r="D57">
+        <f>L$3*$A57+L$4</f>
         <v>23.707465373421591</v>
       </c>
-      <c r="E56">
-        <f>K$2*$A56+K$3</f>
+      <c r="E57">
+        <f>M$3*$A57+M$4</f>
         <v>19.508421289581491</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>1.1936319102728241</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <f t="shared" si="1"/>
         <v>0.25849220769970682</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>23.028987638936396</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>19.232038423749827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>24.8</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>19.8</v>
       </c>
-      <c r="D57">
-        <f>J$2*$A57+J$3</f>
+      <c r="D58">
+        <f>L$3*$A58+L$4</f>
         <v>23.735582374683545</v>
       </c>
-      <c r="E57">
-        <f>K$2*$A57+K$3</f>
+      <c r="E58">
+        <f>M$3*$A58+M$4</f>
         <v>19.526621918684853</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>1.1329848810843217</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <f t="shared" si="1"/>
         <v>7.4735575343551464E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>23.383190111149119</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>19.185630738999862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>24.7</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>19.600000000000001</v>
       </c>
-      <c r="D58">
-        <f>J$2*$A58+J$3</f>
+      <c r="D59">
+        <f>L$3*$A59+L$4</f>
         <v>23.7636993759455</v>
       </c>
-      <c r="E58">
-        <f>K$2*$A58+K$3</f>
+      <c r="E59">
+        <f>M$3*$A59+M$4</f>
         <v>19.544822547788215</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>0.87665885860484571</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <f t="shared" si="1"/>
         <v>3.0445512325840067E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>23.666552088919296</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>19.308504591199892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>25.8</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>20.399999999999999</v>
       </c>
-      <c r="D59">
-        <f>J$2*$A59+J$3</f>
+      <c r="D60">
+        <f>L$3*$A60+L$4</f>
         <v>23.791816377207454</v>
       </c>
-      <c r="E59">
-        <f>K$2*$A59+K$3</f>
+      <c r="E60">
+        <f>M$3*$A60+M$4</f>
         <v>19.563023176891576</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>4.0328014628521993</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <f t="shared" si="1"/>
         <v>0.7005302024206671</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>23.873241671135439</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>19.366803672959914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>20.399999999999999</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>19.3</v>
       </c>
-      <c r="D60">
-        <f>J$2*$A60+J$3</f>
+      <c r="D61">
+        <f>L$3*$A61+L$4</f>
         <v>23.819933378469408</v>
       </c>
-      <c r="E60">
-        <f>K$2*$A60+K$3</f>
+      <c r="E61">
+        <f>M$3*$A61+M$4</f>
         <v>19.581223805994938</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>11.695944313169186</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <f t="shared" si="1"/>
         <v>7.9086829058278102E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>24.258593336908351</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>19.573442938367933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>24.8</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>20</v>
       </c>
-      <c r="D61">
-        <f>J$2*$A61+J$3</f>
+      <c r="D62">
+        <f>L$3*$A62+L$4</f>
         <v>23.848050379731362</v>
       </c>
-      <c r="E61">
-        <f>K$2*$A61+K$3</f>
+      <c r="E62">
+        <f>M$3*$A62+M$4</f>
         <v>19.599424435098296</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>0.90620807952960614</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <f t="shared" si="1"/>
         <v>0.16046078319631926</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>23.486874669526685</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>19.518754350694348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>23.2</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>19.399999999999999</v>
       </c>
-      <c r="D62">
-        <f>J$2*$A62+J$3</f>
+      <c r="D63">
+        <f>L$3*$A63+L$4</f>
         <v>23.876167380993316</v>
       </c>
-      <c r="E62">
-        <f>K$2*$A62+K$3</f>
+      <c r="E63">
+        <f>M$3*$A63+M$4</f>
         <v>19.617625064201658</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>0.45720232711936071</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <f t="shared" si="1"/>
         <v>4.7360668568776229E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>23.749499735621349</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>19.61500348055548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>24.4</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>19.3</v>
       </c>
-      <c r="D63">
-        <f>J$2*$A63+J$3</f>
+      <c r="D64">
+        <f>L$3*$A64+L$4</f>
         <v>23.90428438225527</v>
       </c>
-      <c r="E63">
-        <f>K$2*$A63+K$3</f>
+      <c r="E64">
+        <f>M$3*$A64+M$4</f>
         <v>19.635825693305019</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>0.24573397367603811</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <f t="shared" si="1"/>
         <v>0.11277889628379638</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>23.63959978849708</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>19.572002784444383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>24.5</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>20</v>
       </c>
-      <c r="D64">
-        <f>J$2*$A64+J$3</f>
+      <c r="D65">
+        <f>L$3*$A65+L$4</f>
         <v>23.932401383517224</v>
       </c>
-      <c r="E64">
-        <f>K$2*$A64+K$3</f>
+      <c r="E65">
+        <f>M$3*$A65+M$4</f>
         <v>19.654026322408381</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>0.32216818943316167</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <f t="shared" si="1"/>
         <v>0.11969778558626962</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>23.791679830797662</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>19.517602227555507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>23.7</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>20.2</v>
       </c>
-      <c r="D65">
-        <f>J$2*$A65+J$3</f>
+      <c r="D66">
+        <f>L$3*$A66+L$4</f>
         <v>23.960518384779181</v>
       </c>
-      <c r="E65">
-        <f>K$2*$A65+K$3</f>
+      <c r="E66">
+        <f>M$3*$A66+M$4</f>
         <v>19.672226951511742</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>6.7869828807953975E-2</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <f t="shared" si="1"/>
         <v>0.27854439071058784</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>23.933343864638132</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>19.614081782044408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>23.1</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>20.5</v>
       </c>
-      <c r="D66">
-        <f>J$2*$A66+J$3</f>
+      <c r="D67">
+        <f>L$3*$A67+L$4</f>
         <v>23.988635386041135</v>
       </c>
-      <c r="E66">
-        <f>K$2*$A66+K$3</f>
+      <c r="E67">
+        <f>M$3*$A67+M$4</f>
         <v>19.690427580615104</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>0.78967284932447523</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <f t="shared" si="1"/>
         <v>0.65540750222871369</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>23.886675091710508</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>19.731265425635527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>28.7</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>20.100000000000001</v>
       </c>
-      <c r="D67">
-        <f>J$2*$A67+J$3</f>
+      <c r="D68">
+        <f>L$3*$A68+L$4</f>
         <v>24.016752387303089</v>
       </c>
-      <c r="E67">
-        <f>K$2*$A67+K$3</f>
+      <c r="E68">
+        <f>M$3*$A68+M$4</f>
         <v>19.708628209718466</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F74" si="3">(B67-D67)^2</f>
+      <c r="F68">
+        <f t="shared" ref="F68:F75" si="10">(B68-D68)^2</f>
         <v>21.932808201831303</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G74" si="4">(C67-E67)^2</f>
+      <c r="G68">
+        <f t="shared" ref="G68:G75" si="11">(C68-E68)^2</f>
         <v>0.15317187822817435</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" ref="A68:A74" si="5">A67+1</f>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>23.729340073368409</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>19.885012340508425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ref="A69:A75" si="12">A68+1</f>
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>24.5</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>19.5</v>
       </c>
-      <c r="D68">
-        <f>J$2*$A68+J$3</f>
+      <c r="D69">
+        <f>L$3*$A69+L$4</f>
         <v>24.044869388565044</v>
       </c>
-      <c r="E68">
-        <f>K$2*$A68+K$3</f>
+      <c r="E69">
+        <f>M$3*$A69+M$4</f>
         <v>19.726828838821827</v>
       </c>
-      <c r="F68">
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>0.20714387346515734</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="11"/>
+        <v>5.1451322121258539E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>24.723472058694725</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="3"/>
-        <v>0.20714387346515734</v>
-      </c>
-      <c r="G68">
+        <v>19.92800987240674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>24.2</v>
+      </c>
+      <c r="C70">
+        <v>20.2</v>
+      </c>
+      <c r="D70">
+        <f>L$3*$A70+L$4</f>
+        <v>24.072986389826998</v>
+      </c>
+      <c r="E70">
+        <f>M$3*$A70+M$4</f>
+        <v>19.745029467925189</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>1.6132457169179246E-2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="11"/>
+        <v>0.206998185056436</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="4"/>
-        <v>5.1451322121258539E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>24.2</v>
-      </c>
-      <c r="C69">
-        <v>20.2</v>
-      </c>
-      <c r="D69">
-        <f>J$2*$A69+J$3</f>
-        <v>24.072986389826998</v>
-      </c>
-      <c r="E69">
-        <f>K$2*$A69+K$3</f>
-        <v>19.745029467925189</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
-        <v>1.6132457169179246E-2</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="4"/>
-        <v>0.206998185056436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="5"/>
+        <v>24.67877764695578</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:I75" si="13">(1-I$2)*I69+I$2*C69</f>
+        <v>19.842407897925391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>25</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>20</v>
       </c>
-      <c r="D70">
-        <f>J$2*$A70+J$3</f>
+      <c r="D71">
+        <f>L$3*$A71+L$4</f>
         <v>24.101103391088952</v>
       </c>
-      <c r="E70">
-        <f>K$2*$A70+K$3</f>
+      <c r="E71">
+        <f>M$3*$A71+M$4</f>
         <v>19.763230097028551</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
+      <c r="F71">
+        <f t="shared" si="10"/>
         <v>0.80801511351178223</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="4"/>
+      <c r="G71">
+        <f t="shared" si="11"/>
         <v>5.6059986953109563E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="5"/>
+      <c r="H71">
+        <f t="shared" ref="H71:H75" si="14">(1-H$2)*H70+H$2*B70</f>
+        <v>24.583022117564624</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="13"/>
+        <v>19.913926318340312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>25.7</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>19.8</v>
       </c>
-      <c r="D71">
-        <f>J$2*$A71+J$3</f>
+      <c r="D72">
+        <f>L$3*$A72+L$4</f>
         <v>24.129220392350906</v>
       </c>
-      <c r="E71">
-        <f>K$2*$A71+K$3</f>
+      <c r="E72">
+        <f>M$3*$A72+M$4</f>
         <v>19.781430726131912</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
+      <c r="F72">
+        <f t="shared" si="10"/>
         <v>2.4673485758062403</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="4"/>
+      <c r="G72">
+        <f t="shared" si="11"/>
         <v>3.4481793198807398E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="5"/>
+      <c r="H72">
+        <f t="shared" si="14"/>
+        <v>24.666417694051702</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>19.931141054672253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>21.7</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>19.3</v>
       </c>
-      <c r="D72">
-        <f>J$2*$A72+J$3</f>
+      <c r="D73">
+        <f>L$3*$A73+L$4</f>
         <v>24.15733739361286</v>
       </c>
-      <c r="E72">
-        <f>K$2*$A72+K$3</f>
+      <c r="E73">
+        <f>M$3*$A73+M$4</f>
         <v>19.799631355235274</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
+      <c r="F73">
+        <f t="shared" si="10"/>
         <v>6.0385070660480462</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="4"/>
+      <c r="G73">
+        <f t="shared" si="11"/>
         <v>0.24963149113423569</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="5"/>
+      <c r="H73">
+        <f t="shared" si="14"/>
+        <v>24.873134155241363</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>19.904912843737804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>24.1</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>19.600000000000001</v>
       </c>
-      <c r="D73">
-        <f>J$2*$A73+J$3</f>
+      <c r="D74">
+        <f>L$3*$A74+L$4</f>
         <v>24.185454394874814</v>
       </c>
-      <c r="E73">
-        <f>K$2*$A73+K$3</f>
+      <c r="E74">
+        <f>M$3*$A74+M$4</f>
         <v>19.817831984338632</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
+      <c r="F74">
+        <f t="shared" si="10"/>
         <v>7.3024536034203506E-3</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="4"/>
+      <c r="G74">
+        <f t="shared" si="11"/>
         <v>4.7450773400905359E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="5"/>
+      <c r="H74">
+        <f t="shared" si="14"/>
+        <v>24.23850732419309</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>19.783930274990244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>23.3</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>19.7</v>
       </c>
-      <c r="D74">
-        <f>J$2*$A74+J$3</f>
+      <c r="D75">
+        <f>L$3*$A75+L$4</f>
         <v>24.213571396136771</v>
       </c>
-      <c r="E74">
-        <f>K$2*$A74+K$3</f>
+      <c r="E75">
+        <f>M$3*$A75+M$4</f>
         <v>19.836032613441994</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
+      <c r="F75">
+        <f t="shared" si="10"/>
         <v>0.83461269583928832</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="4"/>
+      <c r="G75">
+        <f t="shared" si="11"/>
         <v>1.8504871919859032E-2</v>
       </c>
+      <c r="H75">
+        <f t="shared" si="14"/>
+        <v>24.210805859354473</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>19.747144219992197</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N34:R34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
